--- a/答辩与预答辩/file/数据-输入1：答辩学生信息表.xlsx
+++ b/答辩与预答辩/file/数据-输入1：答辩学生信息表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\软B-论文评阅系统\paper-review-system-main\答辩安排\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\软B-论文评阅系统\paper-review-system\答辩与预答辩\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420178C0-ED90-496C-B125-46C855087C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD698F76-4D27-4DE8-B1F0-F47C171A0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="2316" windowWidth="13548" windowHeight="12708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全日制分配总表（25人外审）" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'全日制分配总表（25人外审）'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
